--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6 - 马丁组.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6 - 马丁组.xlsx
@@ -17,12 +17,12 @@
     <sheet name="数据修复" sheetId="4" r:id="rId3"/>
     <sheet name="(生产)需要修改的配置文件" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1204,10 +1208,10 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,9 +1342,13 @@
       <c r="O2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="18">
+        <v>4040</v>
+      </c>
       <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
